--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FA6A50-DEA8-4841-B98F-A2B56FE51D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E356C804-FE31-6543-9F66-588C94AE6DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>HashMaps, Arrays, Two Pointers, Sorting, String</t>
   </si>
 </sst>
 </file>
@@ -88,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,12 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,7 +467,7 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" customWidth="1"/>
   </cols>
@@ -502,6 +524,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45804</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E356C804-FE31-6543-9F66-588C94AE6DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554A459-662F-F14B-BAEE-6A5529CC1652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>HashMaps, Arrays, Two Pointers, Sorting, String</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Valid Parantheses</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Stack, Hash Table, Heap, Two Pointers, Sorting</t>
   </si>
 </sst>
 </file>
@@ -455,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,7 +482,7 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" customWidth="1"/>
   </cols>
@@ -550,6 +565,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45805</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554A459-662F-F14B-BAEE-6A5529CC1652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB959D08-0E9E-4C49-AF82-B3B7F4CAA114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Stack, Hash Table, Heap, Two Pointers, Sorting</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Binary Search, Greedy, Sliding Window, Hash Set</t>
   </si>
 </sst>
 </file>
@@ -470,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,7 +496,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" customWidth="1"/>
@@ -591,6 +606,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45806</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB959D08-0E9E-4C49-AF82-B3B7F4CAA114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49E977-4AF5-8A4A-AC90-86F997BE58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Binary Search, Greedy, Sliding Window, Hash Set</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Prefix-Suffix, Two Pointer, Stack Design</t>
   </si>
 </sst>
 </file>
@@ -485,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -632,6 +647,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45807</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49E977-4AF5-8A4A-AC90-86F997BE58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8C0CE-38CD-6C42-A510-F8AD5AF29AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Prefix-Suffix, Two Pointer, Stack Design</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>In-place Array, Hashing, 2D Binary Search</t>
   </si>
 </sst>
 </file>
@@ -500,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,6 +688,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8C0CE-38CD-6C42-A510-F8AD5AF29AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A7C59B-3EAB-F642-9C84-EB04A4558279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Day</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>In-place Array, Hashing, 2D Binary Search</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search, Arrays</t>
   </si>
 </sst>
 </file>
@@ -515,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -714,6 +729,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45809</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A7C59B-3EAB-F642-9C84-EB04A4558279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216B0A3-66C9-B74F-9B14-FE9367B57C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Day</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>Binary Search, Arrays</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Merge Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Arrays, Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,6 +770,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216B0A3-66C9-B74F-9B14-FE9367B57C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BED208-A9A5-674C-AC70-AEA08A4DEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Arrays, Two Pointers</t>
+  </si>
+  <si>
+    <t>S | R1</t>
+  </si>
+  <si>
+    <t>Day 9</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -608,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -794,6 +800,14 @@
       </c>
       <c r="H9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45811</v>
       </c>
     </row>
   </sheetData>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BED208-A9A5-674C-AC70-AEA08A4DEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8413ABE1-E002-8A4F-9633-015A06EA1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Day</t>
   </si>
@@ -176,6 +176,48 @@
   </si>
   <si>
     <t>Day 9</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Sliding Window, Arrays, HashMap</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>HashSet, HashMap, String Matching</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>String Matching, Two Pointers, Math</t>
   </si>
 </sst>
 </file>
@@ -551,16 +593,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" customWidth="1"/>
@@ -809,6 +851,76 @@
       <c r="B10" s="2">
         <v>45811</v>
       </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45812</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45813</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8413ABE1-E002-8A4F-9633-015A06EA1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB2ECF-A3F7-CA4C-B2D1-F87E55FFAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Day</t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>String Matching, Two Pointers, Math</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Two Pointers, Greedy, String</t>
   </si>
 </sst>
 </file>
@@ -593,16 +608,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" customWidth="1"/>
@@ -922,6 +937,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB2ECF-A3F7-CA4C-B2D1-F87E55FFAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDAC8FE-ACCE-414E-9F2A-ED0F78019A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Day 2</t>
   </si>
   <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
     <t>Valid Palindrome</t>
   </si>
   <si>
@@ -233,13 +230,37 @@
   </si>
   <si>
     <t>Two Pointers, Greedy, String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Anagram </t>
+  </si>
+  <si>
+    <t>S | R1: Q1</t>
+  </si>
+  <si>
+    <t>S | R1: Q2</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II.py</t>
+  </si>
+  <si>
+    <t>Jump Game II.py</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix.py</t>
+  </si>
+  <si>
+    <t>Greedy, Arrays, String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +272,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,18 +323,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -685,19 +717,19 @@
         <v>45804</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -705,22 +737,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>45805</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -731,25 +763,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
         <v>45806</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -757,22 +789,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>45807</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -783,22 +815,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>45808</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -809,22 +841,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>45809</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -835,22 +867,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2">
         <v>45810</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -861,22 +893,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
         <v>45811</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -887,22 +919,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2">
         <v>45812</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -913,22 +945,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2">
         <v>45813</v>
       </c>
       <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -939,22 +971,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
         <v>45814</v>
       </c>
       <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -963,7 +995,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" tooltip="Best Time to Buy and Sell Stock II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Best Time to Buy and Sell Stock II.py" xr:uid="{A7F667A7-F9DF-9D4C-B222-190ED7E0C445}"/>
+    <hyperlink ref="D14" r:id="rId2" tooltip="Jump Game II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Jump Game II.py" xr:uid="{5725348C-9B55-3F46-BD71-3EEC875F841C}"/>
+    <hyperlink ref="E14" r:id="rId3" tooltip="Longest Common Prefix.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Longest Common Prefix.py" xr:uid="{FCDD218E-EEDB-754D-8616-6E122ABC352B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDAC8FE-ACCE-414E-9F2A-ED0F78019A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD6BD0-A6C8-EC49-AAF8-8FC00C3049A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Day</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>Greedy, Arrays, String</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II.py</t>
+  </si>
+  <si>
+    <t>Daily Temperatures.py</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation.py</t>
+  </si>
+  <si>
+    <t>Stack, HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
   </si>
 </sst>
 </file>
@@ -640,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -807,7 +825,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1015,6 +1033,29 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45816</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1023,6 +1064,9 @@
     <hyperlink ref="C14" r:id="rId1" tooltip="Best Time to Buy and Sell Stock II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Best Time to Buy and Sell Stock II.py" xr:uid="{A7F667A7-F9DF-9D4C-B222-190ED7E0C445}"/>
     <hyperlink ref="D14" r:id="rId2" tooltip="Jump Game II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Jump Game II.py" xr:uid="{5725348C-9B55-3F46-BD71-3EEC875F841C}"/>
     <hyperlink ref="E14" r:id="rId3" tooltip="Longest Common Prefix.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Longest Common Prefix.py" xr:uid="{FCDD218E-EEDB-754D-8616-6E122ABC352B}"/>
+    <hyperlink ref="C15" r:id="rId4" tooltip="Contains Duplicate II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Contains Duplicate II.py" xr:uid="{92A42F4C-B239-8147-9C94-E1CD78E5F790}"/>
+    <hyperlink ref="D15" r:id="rId5" tooltip="Daily Temperatures.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Daily Temperatures.py" xr:uid="{D7638E6F-2983-A24D-9679-DA32F8E61336}"/>
+    <hyperlink ref="E15" r:id="rId6" tooltip="Evaluate Reverse Polish Notation.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Evaluate Reverse Polish Notation.py" xr:uid="{0422C52F-5F75-3949-9221-6E75EA7018FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD6BD0-A6C8-EC49-AAF8-8FC00C3049A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE104AD3-1F2E-5447-AFD1-B88570367D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Day</t>
   </si>
@@ -272,6 +272,36 @@
   </si>
   <si>
     <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings.py</t>
+  </si>
+  <si>
+    <t>Simplify Path.py</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store.py</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1).py</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String.py</t>
+  </si>
+  <si>
+    <t>Zigzag Conversion.py</t>
+  </si>
+  <si>
+    <t>Stack, Binary Search, Stack</t>
+  </si>
+  <si>
+    <t>String/2Pointer, Stack, HashMap,Arrays</t>
   </si>
 </sst>
 </file>
@@ -658,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,6 +1089,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45817</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45818</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" tooltip="Best Time to Buy and Sell Stock II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Best Time to Buy and Sell Stock II.py" xr:uid="{A7F667A7-F9DF-9D4C-B222-190ED7E0C445}"/>
@@ -1067,6 +1143,12 @@
     <hyperlink ref="C15" r:id="rId4" tooltip="Contains Duplicate II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Contains Duplicate II.py" xr:uid="{92A42F4C-B239-8147-9C94-E1CD78E5F790}"/>
     <hyperlink ref="D15" r:id="rId5" tooltip="Daily Temperatures.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Daily Temperatures.py" xr:uid="{D7638E6F-2983-A24D-9679-DA32F8E61336}"/>
     <hyperlink ref="E15" r:id="rId6" tooltip="Evaluate Reverse Polish Notation.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 14/Evaluate Reverse Polish Notation.py" xr:uid="{0422C52F-5F75-3949-9221-6E75EA7018FF}"/>
+    <hyperlink ref="C16" r:id="rId7" tooltip="Isomorphic Strings.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 15/Isomorphic Strings.py" xr:uid="{5C7259B6-E460-CB41-A20F-1F7E280BA667}"/>
+    <hyperlink ref="D16" r:id="rId8" tooltip="Simplify Path.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 15/Simplify Path.py" xr:uid="{7CA0BB63-C165-634C-90AE-6D1880E657AF}"/>
+    <hyperlink ref="E16" r:id="rId9" tooltip="Time Based Key-Value Store.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 15/Time Based Key-Value Store.py" xr:uid="{B15E6D29-3FC5-E249-B140-657486CD264A}"/>
+    <hyperlink ref="C17" r:id="rId10" tooltip="Insert Delete GetRandom O(1).py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Insert Delete GetRandom O(1).py" xr:uid="{1163E327-5EA1-E04E-8AB8-A5F8256F3DF9}"/>
+    <hyperlink ref="D17" r:id="rId11" tooltip="Reverse Words in a String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Reverse Words in a String.py" xr:uid="{D4305620-999F-8D4A-93C9-9DDC40DAC38C}"/>
+    <hyperlink ref="E17" r:id="rId12" tooltip="Zigzag Conversion.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Zigzag Conversion.py" xr:uid="{93BCA8F8-CFDA-7E4A-9411-30E83F4BF08C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE104AD3-1F2E-5447-AFD1-B88570367D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6226EB-7BFC-7A44-AB64-3A98D505AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -302,6 +302,21 @@
   </si>
   <si>
     <t>String/2Pointer, Stack, HashMap,Arrays</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum.py</t>
+  </si>
+  <si>
+    <t>Permutation in String.py</t>
+  </si>
+  <si>
+    <t>Search Insert Position.py</t>
+  </si>
+  <si>
+    <t>Binary Search, Sliding window</t>
   </si>
 </sst>
 </file>
@@ -688,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1135,6 +1150,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45819</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" tooltip="Best Time to Buy and Sell Stock II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 13/Best Time to Buy and Sell Stock II.py" xr:uid="{A7F667A7-F9DF-9D4C-B222-190ED7E0C445}"/>
@@ -1149,6 +1187,9 @@
     <hyperlink ref="C17" r:id="rId10" tooltip="Insert Delete GetRandom O(1).py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Insert Delete GetRandom O(1).py" xr:uid="{1163E327-5EA1-E04E-8AB8-A5F8256F3DF9}"/>
     <hyperlink ref="D17" r:id="rId11" tooltip="Reverse Words in a String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Reverse Words in a String.py" xr:uid="{D4305620-999F-8D4A-93C9-9DDC40DAC38C}"/>
     <hyperlink ref="E17" r:id="rId12" tooltip="Zigzag Conversion.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 16/Zigzag Conversion.py" xr:uid="{93BCA8F8-CFDA-7E4A-9411-30E83F4BF08C}"/>
+    <hyperlink ref="C18" r:id="rId13" tooltip="Minimum Size Subarray Sum.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Minimum Size Subarray Sum.py" xr:uid="{2311E888-08C3-014E-9DCF-DFC8B47EE417}"/>
+    <hyperlink ref="D18" r:id="rId14" tooltip="Permutation in String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Permutation in String.py" xr:uid="{F99EE38D-D3B0-0449-BBA5-D83A594E06CC}"/>
+    <hyperlink ref="E18" r:id="rId15" tooltip="Search Insert Position.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Search Insert Position.py" xr:uid="{52184F0D-0BCE-FC44-B278-E6E7C65ECF6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6226EB-7BFC-7A44-AB64-3A98D505AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D8036-D7CF-1642-9BFA-27BF0A9A4A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Day</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Status (Solved/Revise)</t>
   </si>
   <si>
-    <t>LinkedIn Post Done?</t>
-  </si>
-  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Day 2</t>
   </si>
   <si>
@@ -317,6 +311,21 @@
   </si>
   <si>
     <t>Binary Search, Sliding window</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Gas Station.py</t>
+  </si>
+  <si>
+    <t>H-Index.py</t>
+  </si>
+  <si>
+    <t>Palindrome Number.py</t>
+  </si>
+  <si>
+    <t>Arrays, Strings</t>
   </si>
 </sst>
 </file>
@@ -703,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,13 +737,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -742,435 +751,420 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>45803</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>45804</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>45805</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>45806</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>45807</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>45808</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>45809</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>45810</v>
       </c>
       <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>45811</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>45812</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2">
         <v>45813</v>
       </c>
       <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2">
         <v>45814</v>
       </c>
       <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2">
         <v>45815</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>45816</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2">
         <v>45817</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2">
         <v>45818</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2">
         <v>45819</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B19" s="2">
+        <v>45820</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
+      <c r="D19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1190,6 +1184,9 @@
     <hyperlink ref="C18" r:id="rId13" tooltip="Minimum Size Subarray Sum.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Minimum Size Subarray Sum.py" xr:uid="{2311E888-08C3-014E-9DCF-DFC8B47EE417}"/>
     <hyperlink ref="D18" r:id="rId14" tooltip="Permutation in String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Permutation in String.py" xr:uid="{F99EE38D-D3B0-0449-BBA5-D83A594E06CC}"/>
     <hyperlink ref="E18" r:id="rId15" tooltip="Search Insert Position.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 17/Search Insert Position.py" xr:uid="{52184F0D-0BCE-FC44-B278-E6E7C65ECF6C}"/>
+    <hyperlink ref="C19" r:id="rId16" tooltip="Gas Station.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/Gas Station.py" xr:uid="{BCB7CD61-E93A-014A-8991-6FD19B97C5C8}"/>
+    <hyperlink ref="D19" r:id="rId17" tooltip="H-Index.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/H-Index.py" xr:uid="{754DC2CA-8B1E-7E43-A3C3-88BFDB2A1F46}"/>
+    <hyperlink ref="E19" r:id="rId18" tooltip="Palindrome Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/Palindrome Number.py" xr:uid="{65ABC927-A40E-6244-8C7A-FC27E7FDD637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D8036-D7CF-1642-9BFA-27BF0A9A4A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151DCF02-9790-594B-80C6-A609A0D07558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Day</t>
   </si>
@@ -326,6 +326,21 @@
   </si>
   <si>
     <t>Arrays, Strings</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Car Fleet.py</t>
+  </si>
+  <si>
+    <t>Merge Strings Alternately.py</t>
+  </si>
+  <si>
+    <t>Move Zeroes.py</t>
+  </si>
+  <si>
+    <t>Stack, Arrays, String, Two Pointer</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -407,6 +422,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,10 +1167,10 @@
       <c r="B19" s="2">
         <v>45820</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1164,6 +1180,29 @@
         <v>101</v>
       </c>
       <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45821</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1187,6 +1226,9 @@
     <hyperlink ref="C19" r:id="rId16" tooltip="Gas Station.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/Gas Station.py" xr:uid="{BCB7CD61-E93A-014A-8991-6FD19B97C5C8}"/>
     <hyperlink ref="D19" r:id="rId17" tooltip="H-Index.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/H-Index.py" xr:uid="{754DC2CA-8B1E-7E43-A3C3-88BFDB2A1F46}"/>
     <hyperlink ref="E19" r:id="rId18" tooltip="Palindrome Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 18/Palindrome Number.py" xr:uid="{65ABC927-A40E-6244-8C7A-FC27E7FDD637}"/>
+    <hyperlink ref="C20" r:id="rId19" tooltip="Car Fleet.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Car Fleet.py" xr:uid="{D240B456-6BF2-6746-9F04-3678F06BD61C}"/>
+    <hyperlink ref="D20" r:id="rId20" tooltip="Merge Strings Alternately.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Merge Strings Alternately.py" xr:uid="{DA51826F-3F16-E24C-ABDD-EEF642375189}"/>
+    <hyperlink ref="E20" r:id="rId21" tooltip="Move Zeroes.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Move Zeroes.py" xr:uid="{8E06058F-AA9C-8145-A675-A27D7F9ACCFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151DCF02-9790-594B-80C6-A609A0D07558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C21F6A-008A-9949-8510-597E14B31105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>Day</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>Stack, Arrays, String, Two Pointer</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Missing Number.py</t>
+  </si>
+  <si>
+    <t>Plus One.py</t>
+  </si>
+  <si>
+    <t>Single Number.py</t>
+  </si>
+  <si>
+    <t>Arrays, Bit(XOR)</t>
   </si>
 </sst>
 </file>
@@ -728,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1203,6 +1218,29 @@
         <v>106</v>
       </c>
       <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1229,6 +1267,9 @@
     <hyperlink ref="C20" r:id="rId19" tooltip="Car Fleet.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Car Fleet.py" xr:uid="{D240B456-6BF2-6746-9F04-3678F06BD61C}"/>
     <hyperlink ref="D20" r:id="rId20" tooltip="Merge Strings Alternately.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Merge Strings Alternately.py" xr:uid="{DA51826F-3F16-E24C-ABDD-EEF642375189}"/>
     <hyperlink ref="E20" r:id="rId21" tooltip="Move Zeroes.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 19/Move Zeroes.py" xr:uid="{8E06058F-AA9C-8145-A675-A27D7F9ACCFD}"/>
+    <hyperlink ref="C21" r:id="rId22" tooltip="Missing Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Missing Number.py" xr:uid="{E1FF4A6A-2A70-4F4C-B0CF-17BE16FA8994}"/>
+    <hyperlink ref="D21" r:id="rId23" tooltip="Plus One.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Plus One.py" xr:uid="{857EB047-3B5F-3240-8906-2DDE8309EFBA}"/>
+    <hyperlink ref="E21" r:id="rId24" tooltip="Single Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Single Number.py" xr:uid="{1F6CC3A1-A0C8-A348-83D9-821D0A14AE7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C21F6A-008A-9949-8510-597E14B31105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B87DDD-05A8-614B-807F-F4D0619079A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>Day</t>
   </si>
@@ -356,6 +356,21 @@
   </si>
   <si>
     <t>Arrays, Bit(XOR)</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Fizz Buzz.py</t>
+  </si>
+  <si>
+    <t>Longest Palindrome.py</t>
+  </si>
+  <si>
+    <t>Reverse String.py</t>
+  </si>
+  <si>
+    <t>HashMaps, Strings, ArrayList</t>
   </si>
 </sst>
 </file>
@@ -743,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1256,29 @@
         <v>111</v>
       </c>
       <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45823</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1270,6 +1308,9 @@
     <hyperlink ref="C21" r:id="rId22" tooltip="Missing Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Missing Number.py" xr:uid="{E1FF4A6A-2A70-4F4C-B0CF-17BE16FA8994}"/>
     <hyperlink ref="D21" r:id="rId23" tooltip="Plus One.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Plus One.py" xr:uid="{857EB047-3B5F-3240-8906-2DDE8309EFBA}"/>
     <hyperlink ref="E21" r:id="rId24" tooltip="Single Number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 20/Single Number.py" xr:uid="{1F6CC3A1-A0C8-A348-83D9-821D0A14AE7D}"/>
+    <hyperlink ref="C22" r:id="rId25" tooltip="Fizz Buzz.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Fizz Buzz.py" xr:uid="{645D6519-ACAA-B64F-95B4-88D2214D927E}"/>
+    <hyperlink ref="D22" r:id="rId26" tooltip="Longest Palindrome.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Longest Palindrome.py" xr:uid="{03E1CA25-7253-344D-9862-95960023C5CA}"/>
+    <hyperlink ref="E22" r:id="rId27" tooltip="Reverse String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Reverse String.py" xr:uid="{3461F0D2-C24C-D649-9ECD-161D8F7798D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B87DDD-05A8-614B-807F-F4D0619079A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF5A54-8D17-D04E-9C9F-C6AE42ACBA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>Day</t>
   </si>
@@ -371,6 +371,24 @@
   </si>
   <si>
     <t>HashMaps, Strings, ArrayList</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Day 27</t>
   </si>
 </sst>
 </file>
@@ -758,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1298,54 @@
       </c>
       <c r="G22" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45829</v>
       </c>
     </row>
   </sheetData>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF5A54-8D17-D04E-9C9F-C6AE42ACBA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AC285-49A9-5242-AB45-177E429EC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
   <si>
     <t>Day</t>
   </si>
@@ -389,6 +389,108 @@
   </si>
   <si>
     <t>Day 27</t>
+  </si>
+  <si>
+    <t>Day 28</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 30 </t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer.py</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II.py</t>
+  </si>
+  <si>
+    <t>Rotate List.java</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
+    <t>Linked List Cycle.java</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists.java</t>
+  </si>
+  <si>
+    <t>Reverse Linked List.java</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List.java</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List.java</t>
+  </si>
+  <si>
+    <t>Reorder List.java</t>
+  </si>
+  <si>
+    <t>LRU Cache.java</t>
+  </si>
+  <si>
+    <t>Partition List.java</t>
+  </si>
+  <si>
+    <t>Day 32</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Linkedlist</t>
+  </si>
+  <si>
+    <t>Linkedlist, Trees (binary)</t>
+  </si>
+  <si>
+    <t>Same Tree.java</t>
+  </si>
+  <si>
+    <t>Day 33</t>
+  </si>
+  <si>
+    <t>Day 34</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Day 35</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree.java</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal.java</t>
+  </si>
+  <si>
+    <t>Dat 36</t>
+  </si>
+  <si>
+    <t>Add two numbers.py</t>
+  </si>
+  <si>
+    <t>Find the duplicate number.py</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II.py</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal.java</t>
   </si>
 </sst>
 </file>
@@ -776,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1307,6 +1409,15 @@
       <c r="B23" s="2">
         <v>45824</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1315,6 +1426,15 @@
       <c r="B24" s="2">
         <v>45825</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1323,6 +1443,15 @@
       <c r="B25" s="2">
         <v>45826</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1331,6 +1460,18 @@
       <c r="B26" s="2">
         <v>45827</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1339,6 +1480,18 @@
       <c r="B27" s="2">
         <v>45828</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1346,6 +1499,105 @@
       </c>
       <c r="B28" s="2">
         <v>45829</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45830</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45831</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45838</v>
       </c>
     </row>
   </sheetData>
@@ -1377,6 +1629,28 @@
     <hyperlink ref="C22" r:id="rId25" tooltip="Fizz Buzz.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Fizz Buzz.py" xr:uid="{645D6519-ACAA-B64F-95B4-88D2214D927E}"/>
     <hyperlink ref="D22" r:id="rId26" tooltip="Longest Palindrome.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Longest Palindrome.py" xr:uid="{03E1CA25-7253-344D-9862-95960023C5CA}"/>
     <hyperlink ref="E22" r:id="rId27" tooltip="Reverse String.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 21/Reverse String.py" xr:uid="{3461F0D2-C24C-D649-9ECD-161D8F7798D6}"/>
+    <hyperlink ref="C26" r:id="rId28" tooltip="Copy List with Random Pointer.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 25/Copy List with Random Pointer.py" xr:uid="{AAD3DFE2-AF66-D24E-A80A-340135230695}"/>
+    <hyperlink ref="D26" r:id="rId29" tooltip="Reverse Linked List II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 25/Reverse Linked List II.py" xr:uid="{C88E9914-F3D5-DD45-AAB1-FF8480DF21FE}"/>
+    <hyperlink ref="E26" r:id="rId30" tooltip="Rotate List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 25/Rotate List.java" xr:uid="{EC3490AC-60AF-4C43-A3F2-49C081132A8D}"/>
+    <hyperlink ref="C23" r:id="rId31" tooltip="Linked List Cycle.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 22/Linked List Cycle.java" xr:uid="{4DF10139-B384-B449-89E5-5F293B15C9F6}"/>
+    <hyperlink ref="D23" r:id="rId32" tooltip="Merge Two Sorted Lists.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 22/Merge Two Sorted Lists.java" xr:uid="{48A4E083-605C-4543-B8A4-420DC3FD312D}"/>
+    <hyperlink ref="E23" r:id="rId33" tooltip="Reverse Linked List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 22/Reverse Linked List.java" xr:uid="{F842C104-3528-E140-955F-B48653053471}"/>
+    <hyperlink ref="C24" r:id="rId34" tooltip="Middle of the Linked List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 23/Middle of the Linked List.java" xr:uid="{F359A445-3244-8F40-8CC6-6FEA37049760}"/>
+    <hyperlink ref="D24" r:id="rId35" tooltip="Remove Nth Node From End of List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 23/Remove Nth Node From End of List.java" xr:uid="{E190D647-E100-254C-9D0F-7FE6018AF12F}"/>
+    <hyperlink ref="E24" r:id="rId36" tooltip="Reorder List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 23/Reorder List.java" xr:uid="{D0B46606-4EDE-DF4D-A40F-0F369FD41045}"/>
+    <hyperlink ref="C27" r:id="rId37" tooltip="LRU Cache.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 26/LRU Cache.java" xr:uid="{596F5E1B-8432-8741-85E3-E32B4EB380B2}"/>
+    <hyperlink ref="D27" r:id="rId38" tooltip="Partition List.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 26/Partition List.java" xr:uid="{AC4660FC-8111-9843-B11F-6A3B12BB86EC}"/>
+    <hyperlink ref="E27" r:id="rId39" tooltip="Maximum Depth of Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 26/Maximum Depth of Binary Tree.java" xr:uid="{1A6E5B49-A60D-304D-A902-0F7879FE4C2B}"/>
+    <hyperlink ref="C28" r:id="rId40" tooltip="Same Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 27/Same Tree.java" xr:uid="{EA5CBC13-BD0C-4A4B-BFF2-DD083C79F1B3}"/>
+    <hyperlink ref="D28" r:id="rId41" tooltip="Invert Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 27/Invert Binary Tree.java" xr:uid="{273A0CF8-9A93-4144-B683-4BAC3508297C}"/>
+    <hyperlink ref="E28" r:id="rId42" tooltip="Balanced Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 27/Balanced Binary Tree.java" xr:uid="{2B9EC3D3-4E21-954F-8E77-14A189BCA8BA}"/>
+    <hyperlink ref="C29" r:id="rId43" tooltip="Diameter of Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 28/Diameter of Binary Tree.java" xr:uid="{C0968B9B-C658-1B4D-96B1-D0084D829751}"/>
+    <hyperlink ref="D29" r:id="rId44" tooltip="Subtree of Another Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 28/Subtree of Another Tree.java" xr:uid="{63AED5F4-7624-1B40-9AC0-7FADF06AA01A}"/>
+    <hyperlink ref="E29" r:id="rId45" tooltip="Binary Tree Level Order Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 28/Binary Tree Level Order Traversal.java" xr:uid="{D5BC7BCC-27E5-B646-B1F4-D6E2240A7469}"/>
+    <hyperlink ref="C25" r:id="rId46" tooltip="Add two numbers.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 24/Add two numbers.py" xr:uid="{FF712D4C-F2A8-1249-B834-8AB36EAB34BA}"/>
+    <hyperlink ref="D25" r:id="rId47" tooltip="Find the duplicate number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 24/Find the duplicate number.py" xr:uid="{36CC525B-EB01-F946-A176-72C7922A11F5}"/>
+    <hyperlink ref="E25" r:id="rId48" tooltip="Remove Duplicates from Sorted List II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 24/Remove Duplicates from Sorted List II.py" xr:uid="{03E3EAEE-96C6-134F-B9B1-733C9395567D}"/>
+    <hyperlink ref="C30" r:id="rId49" tooltip="Binary Tree Zigzag Level Order Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Binary Tree Zigzag Level Order Traversal.java" xr:uid="{D0473EB1-2006-6A40-BB95-0A09D6CB0ED2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AC285-49A9-5242-AB45-177E429EC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1708FBEA-6315-BE41-B686-48A77CC9D78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="165">
   <si>
     <t>Day</t>
   </si>
@@ -478,9 +491,6 @@
     <t>Binary Tree Level Order Traversal.java</t>
   </si>
   <si>
-    <t>Dat 36</t>
-  </si>
-  <si>
     <t>Add two numbers.py</t>
   </si>
   <si>
@@ -491,6 +501,33 @@
   </si>
   <si>
     <t>Binary Tree Zigzag Level Order Traversal.java</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Day 36</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View.java</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal.java</t>
+  </si>
+  <si>
+    <t>Binary Tree PreOrder Traversal.java</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal.java</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal.java</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal.java</t>
+  </si>
+  <si>
+    <t>Symmetric Tree.java</t>
   </si>
 </sst>
 </file>
@@ -522,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -573,6 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,17 +922,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
@@ -1444,13 +1488,13 @@
         <v>45826</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1541,7 +1585,13 @@
         <v>45831</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1551,6 +1601,15 @@
       <c r="B31" s="2">
         <v>45832</v>
       </c>
+      <c r="C31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1559,6 +1618,15 @@
       <c r="B32" s="2">
         <v>45833</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1594,10 +1662,70 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2">
         <v>45838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>45850</v>
       </c>
     </row>
   </sheetData>
@@ -1651,6 +1779,14 @@
     <hyperlink ref="D25" r:id="rId47" tooltip="Find the duplicate number.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 24/Find the duplicate number.py" xr:uid="{36CC525B-EB01-F946-A176-72C7922A11F5}"/>
     <hyperlink ref="E25" r:id="rId48" tooltip="Remove Duplicates from Sorted List II.py" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 24/Remove Duplicates from Sorted List II.py" xr:uid="{03E3EAEE-96C6-134F-B9B1-733C9395567D}"/>
     <hyperlink ref="C30" r:id="rId49" tooltip="Binary Tree Zigzag Level Order Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Binary Tree Zigzag Level Order Traversal.java" xr:uid="{D0473EB1-2006-6A40-BB95-0A09D6CB0ED2}"/>
+    <hyperlink ref="C31" r:id="rId50" tooltip="Vertical Order Traversal of a Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 30/Vertical Order Traversal of a Binary Tree.java" xr:uid="{B084B1E1-2CA8-4C47-AFEC-77E778B59FDD}"/>
+    <hyperlink ref="D31" r:id="rId51" tooltip="Binary Tree Right Side View.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Binary Tree Right Side View.java" xr:uid="{5ECA55A2-A7F6-7F46-9F6A-C0368BAC6B56}"/>
+    <hyperlink ref="E31" r:id="rId52" tooltip="Binary Tree Inorder Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 30/Binary Tree Inorder Traversal.java" xr:uid="{58E36BE9-7535-804F-B1EE-90C57A8F11C6}"/>
+    <hyperlink ref="D30" r:id="rId53" tooltip="Binary Tree PreOrder Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 30/Binary Tree PreOrder Traversal.java" xr:uid="{E82E4CD1-1D3E-5447-B0FD-94DE7FC594F1}"/>
+    <hyperlink ref="C32" r:id="rId54" tooltip="Construct Binary Tree from Preorder and Inorder Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 31/Construct Binary Tree from Preorder and Inorder Traversal.java" xr:uid="{4D0E0E32-E723-4D47-ADB0-E65E15473A8A}"/>
+    <hyperlink ref="D32" r:id="rId55" tooltip="Construct Binary Tree from Inorder and Postorder Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 31/Construct Binary Tree from Inorder and Postorder Traversal.java" xr:uid="{8FA0AFD2-0C61-F045-A013-D4ABE4F3EF7C}"/>
+    <hyperlink ref="E32" r:id="rId56" tooltip="Symmetric Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Symmetric Tree.java" xr:uid="{28C39D72-70A2-E84A-AC8C-F2F90233B74E}"/>
+    <hyperlink ref="E30" r:id="rId57" tooltip="Symmetric Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Symmetric Tree.java" xr:uid="{334C79D2-7654-874D-B91C-A0D35DA0C26B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress_Tracker.xlsx
+++ b/Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhythm/90Day-LeetCode-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1708FBEA-6315-BE41-B686-48A77CC9D78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A686AF4-5CF8-3C41-88A8-78D9E2CFF1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
   <si>
     <t>Day</t>
   </si>
@@ -528,6 +528,27 @@
   </si>
   <si>
     <t>Symmetric Tree.java</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes.java</t>
+  </si>
+  <si>
+    <t>Sum of left leaves.java</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees.java</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths.java</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree.java</t>
+  </si>
+  <si>
+    <t>Root Equals Sum of Children.java</t>
+  </si>
+  <si>
+    <t>Univalued Binary Tree.java</t>
   </si>
 </sst>
 </file>
@@ -922,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1628,31 +1649,52 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
       <c r="B33" s="2">
         <v>45834</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="2">
         <v>45835</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
       <c r="B35" s="2">
         <v>45836</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -1660,7 +1702,7 @@
         <v>45837</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -1668,52 +1710,52 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>45839</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>45840</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>45841</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>45842</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>45843</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>45844</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>45845</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>45846</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>45847</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <v>45848</v>
       </c>
@@ -1726,6 +1768,21 @@
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>45850</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>45853</v>
       </c>
     </row>
   </sheetData>
@@ -1787,6 +1844,13 @@
     <hyperlink ref="D32" r:id="rId55" tooltip="Construct Binary Tree from Inorder and Postorder Traversal.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 31/Construct Binary Tree from Inorder and Postorder Traversal.java" xr:uid="{8FA0AFD2-0C61-F045-A013-D4ABE4F3EF7C}"/>
     <hyperlink ref="E32" r:id="rId56" tooltip="Symmetric Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Symmetric Tree.java" xr:uid="{28C39D72-70A2-E84A-AC8C-F2F90233B74E}"/>
     <hyperlink ref="E30" r:id="rId57" tooltip="Symmetric Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 29/Symmetric Tree.java" xr:uid="{334C79D2-7654-874D-B91C-A0D35DA0C26B}"/>
+    <hyperlink ref="C33" r:id="rId58" tooltip="Count Complete Tree Nodes.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 32/Count Complete Tree Nodes.java" xr:uid="{05B0B488-FA61-BC4B-AD51-6FEA27650759}"/>
+    <hyperlink ref="D33" r:id="rId59" tooltip="Sum of left leaves.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 32/Sum of left leaves.java" xr:uid="{3A8C1190-5EB4-CB42-9BDB-BBD908600E2B}"/>
+    <hyperlink ref="E33" r:id="rId60" tooltip="Merge Two Binary Trees.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 32/Merge Two Binary Trees.java" xr:uid="{BFDB7C83-48B0-A444-8960-9722EC603B4A}"/>
+    <hyperlink ref="C34" r:id="rId61" tooltip="Binary Tree Paths.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 33/Binary Tree Paths.java" xr:uid="{4A70F40C-A5BE-4046-82FB-B44A03DB8B40}"/>
+    <hyperlink ref="D34" r:id="rId62" tooltip="Lowest Common Ancestor of a Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 33/Lowest Common Ancestor of a Binary Tree.java" xr:uid="{E754CD3D-4F37-9943-AEFA-82FE15FEE8EE}"/>
+    <hyperlink ref="E34" r:id="rId63" tooltip="Root Equals Sum of Children.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 33/Root Equals Sum of Children.java" xr:uid="{AB33984F-BD0A-474A-961C-9676B6296D5C}"/>
+    <hyperlink ref="C35" r:id="rId64" tooltip="Univalued Binary Tree.java" display="https://github.com/rhythmtaneja/90Day-LeetCode-Challenge/blob/main/Day 34/Univalued Binary Tree.java" xr:uid="{0060F5DD-6AB3-7644-B2E0-45B631995F22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
